--- a/encodingMemoryPerformanceCluster.xlsx
+++ b/encodingMemoryPerformanceCluster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDD524-EDAB-4FDB-A9DB-F66709BF5EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15409D37-CBD3-4B28-AA91-7891DAD39464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{50CB571C-BA03-4E5D-B652-42FD5E62138A}"/>
   </bookViews>
@@ -24453,8 +24453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112BFF63-898B-4924-89B9-BCA91BB058A8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/encodingMemoryPerformanceCluster.xlsx
+++ b/encodingMemoryPerformanceCluster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC224E-D617-4145-B763-4E4C8BAB6300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493CF05-BF81-4AC5-AAF5-981B65807853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50CB571C-BA03-4E5D-B652-42FD5E62138A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50CB571C-BA03-4E5D-B652-42FD5E62138A}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>RLE</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>ROARING</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
   </si>
   <si>
     <t>BITMAP</t>
@@ -4073,11 +4061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> cardinality</a:t>
+              <a:t>Encoding performance [exponential 1]</a:t>
             </a:r>
             <a:endParaRPr lang="el-GR"/>
           </a:p>
@@ -5001,7 +4985,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Compression type</a:t>
+                  <a:t>cardinality</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5334,7 +5318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5770,7 +5754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6206,7 +6190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7078,7 +7062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7489,7 +7473,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 2]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7568,24 +7552,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7654,24 +7639,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7740,24 +7726,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7826,24 +7813,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7918,24 +7906,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8010,24 +7999,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8102,24 +8092,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8209,7 +8200,7 @@
                   </c:spPr>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
+                  <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -8217,22 +8208,23 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:strCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>cardinality: 10</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>cardinality: 100</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>cardinality: 1000</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>cardinality: 10000</c:v>
+                        <c:v>10000</c:v>
                       </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                    </c:numCache>
+                  </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
@@ -8315,30 +8307,31 @@
                   </c:spPr>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:numRef>
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'exponential 2'!$B$1:$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:strCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>cardinality: 10</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>cardinality: 100</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>cardinality: 1000</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>cardinality: 10000</c:v>
+                        <c:v>10000</c:v>
                       </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                    </c:numCache>
+                  </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
@@ -31637,8 +31630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10F8F8A-EB4A-4DC9-99B4-3882D0B47EB2}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31666,7 +31659,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5276.91</v>
@@ -31734,7 +31727,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1106.48</v>
@@ -31765,7 +31758,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -31782,7 +31775,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>16.75</v>
@@ -31799,7 +31792,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2.0299999999999998</v>
@@ -31824,8 +31817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93612F1B-EECA-4B51-90AD-12B914260FF4}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31853,7 +31846,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5487.7</v>
@@ -31921,7 +31914,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>947.48</v>
@@ -31952,7 +31945,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -31969,7 +31962,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>16.63</v>
@@ -31986,7 +31979,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1.87</v>
@@ -32011,8 +32004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7114672-8722-45F6-BD22-E91B74479F44}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32040,7 +32033,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5487.58</v>
@@ -32108,7 +32101,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1268.19</v>
@@ -32139,7 +32132,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -32156,7 +32149,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>16.579999999999998</v>
@@ -32173,7 +32166,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1.69</v>
@@ -32199,7 +32192,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32212,22 +32205,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5487.58</v>
@@ -32295,7 +32288,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1292.69</v>
@@ -32326,7 +32319,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -32343,7 +32336,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>16.579999999999998</v>
@@ -32360,7 +32353,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1.71</v>
@@ -32400,21 +32393,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>5276.91</v>
@@ -32482,7 +32475,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1106.48</v>
@@ -32516,7 +32509,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -32533,7 +32526,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>16.75</v>
@@ -32550,7 +32543,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2.0299999999999998</v>
@@ -32589,21 +32582,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>10942.26</v>
@@ -32671,7 +32664,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>11830.24</v>
@@ -32705,7 +32698,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -32722,7 +32715,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>18.57</v>
@@ -32739,7 +32732,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>11.8</v>
@@ -32778,21 +32771,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>19397.93</v>
@@ -32860,7 +32853,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>133852.47</v>
@@ -32894,7 +32887,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -32911,7 +32904,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>38.06</v>
@@ -32928,7 +32921,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>105.29</v>
@@ -32968,21 +32961,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>20711.86</v>
@@ -33050,7 +33043,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -33072,7 +33065,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3814.75</v>
@@ -33089,7 +33082,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>206.78</v>
@@ -33106,7 +33099,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>263.54000000000002</v>
